--- a/nama.xlsx
+++ b/nama.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nama</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>erwin</t>
+  </si>
+  <si>
+    <t>ryan</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +389,14 @@
       </c>
       <c r="B2">
         <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/nama.xlsx
+++ b/nama.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nama</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>ryan</t>
+  </si>
+  <si>
+    <t>lulu</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +400,14 @@
       </c>
       <c r="B3">
         <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/nama.xlsx
+++ b/nama.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nama</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>lulu</t>
+  </si>
+  <si>
+    <t>lala</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +411,14 @@
       </c>
       <c r="B4">
         <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/nama.xlsx
+++ b/nama.xlsx
@@ -418,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/nama.xlsx
+++ b/nama.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nama</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>lala</t>
+  </si>
+  <si>
+    <t>lili</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,14 @@
       </c>
       <c r="B5">
         <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1211</v>
       </c>
     </row>
   </sheetData>

--- a/nama.xlsx
+++ b/nama.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nama</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>lili</t>
+  </si>
+  <si>
+    <t>ljlj</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +433,14 @@
       </c>
       <c r="B6">
         <v>1211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
